--- a/NEW HR/PANGANIBAN, CAROLINA.xlsx
+++ b/NEW HR/PANGANIBAN, CAROLINA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>2/9,10/2023</t>
+  </si>
+  <si>
+    <t>3/3,6/2023</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>3/14,15/2023</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1217,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1378,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>18.5</v>
+        <v>19.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1379,7 +1388,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>15</v>
+        <v>14.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -1901,24 +1910,34 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="14"/>
+      <c r="A33" s="24">
+        <v>44986</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D33" s="12"/>
       <c r="E33" s="9"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G33" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="9"/>
       <c r="J33" s="12"/>
-      <c r="K33" s="21"/>
+      <c r="K33" s="21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
-      <c r="B34" s="12"/>
+      <c r="B34" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="C34" s="14"/>
       <c r="D34" s="12"/>
       <c r="E34" s="9"/>
@@ -1927,10 +1946,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H34" s="12"/>
+      <c r="H34" s="12">
+        <v>2</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="12"/>
-      <c r="K34" s="21"/>
+      <c r="K34" s="21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>

--- a/NEW HR/PANGANIBAN, CAROLINA.xlsx
+++ b/NEW HR/PANGANIBAN, CAROLINA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -197,9 +197,6 @@
     <t>SP(1-0-0)</t>
   </si>
   <si>
-    <t>FL(2--0-0)</t>
-  </si>
-  <si>
     <t>2/9,10/2023</t>
   </si>
   <si>
@@ -210,6 +207,18 @@
   </si>
   <si>
     <t>3/14,15/2023</t>
+  </si>
+  <si>
+    <t>TICC</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/15,16,26/2023</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1226,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1297,9 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="50" t="s">
+        <v>58</v>
+      </c>
       <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
@@ -1378,7 +1390,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>19.75</v>
+        <v>18</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1388,7 +1400,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>14.25</v>
+        <v>15.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -1866,7 +1878,7 @@
         <v>44958</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C31" s="14">
         <v>1.25</v>
@@ -1884,7 +1896,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="12"/>
       <c r="K31" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1914,7 +1926,7 @@
         <v>44986</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="14">
         <v>1.25</v>
@@ -1930,7 +1942,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="12"/>
       <c r="K33" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1952,19 +1964,23 @@
       <c r="I34" s="9"/>
       <c r="J34" s="12"/>
       <c r="K34" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
+      <c r="A35" s="24">
+        <v>45017</v>
+      </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D35" s="12"/>
       <c r="E35" s="9"/>
       <c r="F35" s="12"/>
-      <c r="G35" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G35" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="9"/>
@@ -1972,10 +1988,16 @@
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="24">
+        <v>45047</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="12">
+        <v>3</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="12"/>
       <c r="G36" s="14" t="str">
@@ -1985,7 +2007,9 @@
       <c r="H36" s="12"/>
       <c r="I36" s="9"/>
       <c r="J36" s="12"/>
-      <c r="K36" s="21"/>
+      <c r="K36" s="21" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>

--- a/NEW HR/PANGANIBAN, CAROLINA.xlsx
+++ b/NEW HR/PANGANIBAN, CAROLINA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1227,7 +1227,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1390,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>18</v>
+        <v>19.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1400,7 +1400,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>15.5</v>
+        <v>15.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -1994,15 +1994,17 @@
       <c r="B36" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D36" s="12">
         <v>3</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G36" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="9"/>
@@ -2012,8 +2014,12 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="24">
+        <v>45078</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="C37" s="14"/>
       <c r="D37" s="12"/>
       <c r="E37" s="9"/>
@@ -2022,10 +2028,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H37" s="12"/>
+      <c r="H37" s="12">
+        <v>1</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="21"/>
+      <c r="K37" s="39">
+        <v>45071</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>

--- a/NEW HR/PANGANIBAN, CAROLINA.xlsx
+++ b/NEW HR/PANGANIBAN, CAROLINA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C0A830-7837-428B-9041-C71B4D1888E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -224,7 +225,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -876,7 +877,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -893,25 +894,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K68" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K68" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1218,34 +1219,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <pane ySplit="3696" topLeftCell="A28" activePane="bottomLeft"/>
+      <selection activeCell="I8" sqref="I8:I68"/>
+      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1267,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="51"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1286,7 +1287,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1308,7 +1309,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="51"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1316,7 +1317,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1329,7 +1330,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="48" t="s">
@@ -1346,7 +1347,7 @@
       <c r="J7" s="48"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1400,12 +1401,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>15.75</v>
+        <v>14.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>44</v>
       </c>
@@ -1427,7 +1428,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>44593</v>
       </c>
@@ -1447,7 +1448,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>44621</v>
       </c>
@@ -1467,7 +1468,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>44652</v>
       </c>
@@ -1487,7 +1488,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24">
         <v>44682</v>
       </c>
@@ -1507,7 +1508,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24">
         <v>44713</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>44717</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>44743</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>44773</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="21" t="s">
         <v>46</v>
@@ -1581,7 +1582,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>44774</v>
       </c>
@@ -1601,7 +1602,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>44805</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>44814</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="21" t="s">
         <v>45</v>
@@ -1649,7 +1650,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="21" t="s">
         <v>48</v>
@@ -1671,7 +1672,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <v>44835</v>
       </c>
@@ -1691,7 +1692,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <v>44866</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>44896</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="13" t="s">
         <v>45</v>
@@ -1765,7 +1766,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="13" t="s">
         <v>45</v>
@@ -1787,7 +1788,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="s">
         <v>52</v>
       </c>
@@ -1805,7 +1806,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <v>44927</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="12" t="s">
         <v>53</v>
@@ -1851,7 +1852,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="12" t="s">
         <v>45</v>
@@ -1873,7 +1874,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <v>44958</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
       <c r="B32" s="12" t="s">
         <v>45</v>
@@ -1921,7 +1922,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <v>44986</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="12" t="s">
         <v>48</v>
@@ -1967,7 +1968,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <v>45017</v>
       </c>
@@ -1987,7 +1988,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <v>45047</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <v>45078</v>
       </c>
@@ -2037,9 +2038,11 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
-      <c r="B38" s="12"/>
+      <c r="B38" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="C38" s="14"/>
       <c r="D38" s="12"/>
       <c r="E38" s="9"/>
@@ -2048,12 +2051,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="12">
+        <v>1</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="39">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="12"/>
       <c r="C39" s="14"/>
@@ -2069,7 +2076,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="12"/>
       <c r="C40" s="14"/>
@@ -2085,7 +2092,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="12"/>
       <c r="C41" s="14"/>
@@ -2101,7 +2108,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
@@ -2117,7 +2124,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
       <c r="B43" s="12"/>
       <c r="C43" s="14"/>
@@ -2133,7 +2140,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
       <c r="B44" s="12"/>
       <c r="C44" s="14"/>
@@ -2149,7 +2156,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
       <c r="B45" s="12"/>
       <c r="C45" s="14"/>
@@ -2165,7 +2172,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
@@ -2181,7 +2188,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="12"/>
       <c r="C47" s="14"/>
@@ -2197,7 +2204,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
       <c r="B48" s="12"/>
       <c r="C48" s="14"/>
@@ -2213,7 +2220,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="12"/>
       <c r="C49" s="14"/>
@@ -2229,7 +2236,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
       <c r="B50" s="12"/>
       <c r="C50" s="14"/>
@@ -2245,7 +2252,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="24"/>
       <c r="B51" s="12"/>
       <c r="C51" s="14"/>
@@ -2261,7 +2268,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="24"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -2277,7 +2284,7 @@
       <c r="J52" s="13"/>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -2293,7 +2300,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -2309,7 +2316,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -2325,7 +2332,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -2341,7 +2348,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -2357,7 +2364,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -2373,7 +2380,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -2389,7 +2396,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -2405,7 +2412,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -2421,7 +2428,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -2437,7 +2444,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -2453,7 +2460,7 @@
       <c r="J63" s="13"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="24"/>
       <c r="B64" s="12"/>
       <c r="C64" s="14"/>
@@ -2469,7 +2476,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14"/>
@@ -2485,7 +2492,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
       <c r="B66" s="12"/>
       <c r="C66" s="14"/>
@@ -2501,7 +2508,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="24"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
@@ -2517,7 +2524,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -2548,10 +2555,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2574,28 +2581,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="40" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="40" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="56" t="s">
         <v>33</v>
       </c>
@@ -2608,7 +2615,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -2637,7 +2644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="36">
         <v>9.25</v>
       </c>
@@ -2661,17 +2668,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="41" t="s">
         <v>28</v>
       </c>
@@ -2692,7 +2699,7 @@
       <c r="K6" s="58"/>
       <c r="L6" s="58"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="40">
         <v>1</v>
       </c>
@@ -2719,7 +2726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="40">
         <v>2</v>
       </c>
@@ -2745,7 +2752,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="40">
         <v>3</v>
       </c>
@@ -2771,7 +2778,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="40">
         <v>4</v>
       </c>
@@ -2797,7 +2804,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="40">
         <v>5</v>
       </c>
@@ -2823,7 +2830,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="40">
         <v>6</v>
       </c>
@@ -2849,7 +2856,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="40">
         <v>7</v>
       </c>
@@ -2875,7 +2882,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="40">
         <v>8</v>
       </c>
@@ -2901,7 +2908,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="40">
         <v>9</v>
       </c>
@@ -2921,7 +2928,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="40">
         <v>10</v>
       </c>
@@ -2941,7 +2948,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="40">
         <v>11</v>
       </c>
@@ -2961,7 +2968,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="40">
         <v>12</v>
       </c>
@@ -2982,7 +2989,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="40">
         <v>13</v>
       </c>
@@ -3003,7 +3010,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="40">
         <v>14</v>
       </c>
@@ -3024,7 +3031,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="40">
         <v>15</v>
       </c>
@@ -3045,7 +3052,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="40">
         <v>16</v>
       </c>
@@ -3066,7 +3073,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="40">
         <v>17</v>
       </c>
@@ -3087,7 +3094,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="40">
         <v>18</v>
       </c>
@@ -3108,7 +3115,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="40">
         <v>19</v>
       </c>
@@ -3129,7 +3136,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="40">
         <v>20</v>
       </c>
@@ -3150,7 +3157,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="40">
         <v>21</v>
       </c>
@@ -3171,7 +3178,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="40">
         <v>22</v>
       </c>
@@ -3192,7 +3199,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="40">
         <v>23</v>
       </c>
@@ -3213,7 +3220,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="40">
         <v>24</v>
       </c>
@@ -3234,7 +3241,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="40">
         <v>25</v>
       </c>
@@ -3255,7 +3262,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="40">
         <v>26</v>
       </c>
@@ -3276,7 +3283,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="40">
         <v>27</v>
       </c>
@@ -3297,7 +3304,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="40">
         <v>28</v>
       </c>
@@ -3318,7 +3325,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="40">
         <v>29</v>
       </c>
@@ -3339,7 +3346,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="40">
         <v>30</v>
       </c>
@@ -3360,7 +3367,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="40">
         <v>31</v>
       </c>
@@ -3381,7 +3388,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="40">
         <v>32</v>
       </c>
@@ -3390,7 +3397,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="40">
         <v>33</v>
       </c>
@@ -3399,7 +3406,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="40">
         <v>34</v>
       </c>
@@ -3408,7 +3415,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="40">
         <v>35</v>
       </c>
@@ -3417,7 +3424,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="40">
         <v>36</v>
       </c>
@@ -3426,7 +3433,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="40">
         <v>37</v>
       </c>
@@ -3435,7 +3442,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="40">
         <v>38</v>
       </c>
@@ -3444,7 +3451,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="40">
         <v>39</v>
       </c>
@@ -3453,7 +3460,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="40">
         <v>40</v>
       </c>
@@ -3462,7 +3469,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="40">
         <v>41</v>
       </c>
@@ -3471,7 +3478,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="40">
         <v>42</v>
       </c>
@@ -3480,7 +3487,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="40">
         <v>43</v>
       </c>
@@ -3489,7 +3496,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="40">
         <v>44</v>
       </c>
@@ -3498,7 +3505,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="40">
         <v>45</v>
       </c>
@@ -3507,7 +3514,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="40">
         <v>46</v>
       </c>
@@ -3516,7 +3523,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="40">
         <v>47</v>
       </c>
@@ -3525,7 +3532,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="40">
         <v>48</v>
       </c>
@@ -3534,7 +3541,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="40">
         <v>49</v>
       </c>
@@ -3543,7 +3550,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="40">
         <v>50</v>
       </c>
@@ -3552,7 +3559,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="40">
         <v>51</v>
       </c>
@@ -3561,7 +3568,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="40">
         <v>52</v>
       </c>
@@ -3570,7 +3577,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="40">
         <v>53</v>
       </c>
@@ -3579,7 +3586,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="40">
         <v>54</v>
       </c>
@@ -3588,7 +3595,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="40">
         <v>55</v>
       </c>
@@ -3597,7 +3604,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="40">
         <v>56</v>
       </c>
@@ -3606,7 +3613,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="40">
         <v>57</v>
       </c>
@@ -3615,7 +3622,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="40">
         <v>58</v>
       </c>
@@ -3624,7 +3631,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="40">
         <v>59</v>
       </c>
@@ -3633,7 +3640,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="40">
         <v>60</v>
       </c>
@@ -3642,7 +3649,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/PANGANIBAN, CAROLINA.xlsx
+++ b/NEW HR/PANGANIBAN, CAROLINA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C0A830-7837-428B-9041-C71B4D1888E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>PERIOD</t>
   </si>
@@ -225,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -877,7 +876,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -894,25 +893,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K68" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K69" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+#REF!</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1219,34 +1218,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K68"/>
+  <dimension ref="A2:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A28" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="I8" sqref="I8:I68"/>
-      <selection pane="bottomLeft" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +1266,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="51"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1287,7 +1286,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1309,7 +1308,7 @@
       <c r="J4" s="50"/>
       <c r="K4" s="51"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1317,7 +1316,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1330,7 +1329,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="48" t="s">
@@ -1347,7 +1346,7 @@
       <c r="J7" s="48"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1391,7 +1390,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>19.25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1401,12 +1400,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>14.75</v>
+        <v>16.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>44</v>
       </c>
@@ -1428,7 +1427,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>44593</v>
       </c>
@@ -1448,7 +1447,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>44621</v>
       </c>
@@ -1468,7 +1467,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>44652</v>
       </c>
@@ -1488,7 +1487,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>44682</v>
       </c>
@@ -1508,7 +1507,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>44713</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>44717</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>44743</v>
       </c>
@@ -1560,7 +1559,7 @@
         <v>44773</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="21" t="s">
         <v>46</v>
@@ -1582,7 +1581,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>44774</v>
       </c>
@@ -1602,7 +1601,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>44805</v>
       </c>
@@ -1628,7 +1627,7 @@
         <v>44814</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="21" t="s">
         <v>45</v>
@@ -1650,7 +1649,7 @@
         <v>44823</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="21" t="s">
         <v>48</v>
@@ -1672,7 +1671,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>44835</v>
       </c>
@@ -1692,7 +1691,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>44866</v>
       </c>
@@ -1718,7 +1717,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>44896</v>
       </c>
@@ -1744,7 +1743,7 @@
         <v>44909</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="13" t="s">
         <v>45</v>
@@ -1766,7 +1765,7 @@
         <v>44900</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="13" t="s">
         <v>45</v>
@@ -1788,7 +1787,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>52</v>
       </c>
@@ -1806,7 +1805,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>44927</v>
       </c>
@@ -1832,7 +1831,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="12" t="s">
         <v>53</v>
@@ -1852,7 +1851,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="12" t="s">
         <v>45</v>
@@ -1874,7 +1873,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>44958</v>
       </c>
@@ -1900,7 +1899,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="12" t="s">
         <v>45</v>
@@ -1922,7 +1921,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>44986</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="12" t="s">
         <v>48</v>
@@ -1968,7 +1967,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>45017</v>
       </c>
@@ -1988,7 +1987,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>45047</v>
       </c>
@@ -2014,20 +2013,22 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>45078</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="14"/>
+      <c r="C37" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D37" s="12"/>
       <c r="E37" s="9"/>
       <c r="F37" s="12"/>
-      <c r="G37" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G37" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H37" s="12">
         <v>1</v>
@@ -2038,7 +2039,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="12" t="s">
         <v>45</v>
@@ -2060,56 +2061,78 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>45108</v>
+      </c>
       <c r="B39" s="12"/>
-      <c r="C39" s="14"/>
+      <c r="C39" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D39" s="12"/>
       <c r="E39" s="9"/>
       <c r="F39" s="12"/>
-      <c r="G39" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G39" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="9"/>
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="14"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <v>45139</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D40" s="12"/>
       <c r="E40" s="9"/>
       <c r="F40" s="12"/>
-      <c r="G40" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H40" s="12"/>
+      <c r="G40" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H40" s="12">
+        <v>1</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="21"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K40" s="39">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
-      <c r="B41" s="12"/>
+      <c r="B41" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="C41" s="14"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="42"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H41" s="12"/>
+      <c r="H41" s="42">
+        <v>1</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="21"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
+      <c r="K41" s="39">
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>45170</v>
+      </c>
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
       <c r="D42" s="12"/>
@@ -2124,8 +2147,10 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <v>45200</v>
+      </c>
       <c r="B43" s="12"/>
       <c r="C43" s="14"/>
       <c r="D43" s="12"/>
@@ -2140,7 +2165,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="12"/>
       <c r="C44" s="14"/>
@@ -2156,7 +2181,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="12"/>
       <c r="C45" s="14"/>
@@ -2172,7 +2197,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
@@ -2188,7 +2213,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="12"/>
       <c r="C47" s="14"/>
@@ -2204,7 +2229,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="12"/>
       <c r="C48" s="14"/>
@@ -2220,7 +2245,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="12"/>
       <c r="C49" s="14"/>
@@ -2236,7 +2261,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="12"/>
       <c r="C50" s="14"/>
@@ -2252,7 +2277,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="12"/>
       <c r="C51" s="14"/>
@@ -2268,23 +2293,23 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
-      <c r="B52" s="13"/>
+      <c r="B52" s="12"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="13"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="12"/>
       <c r="G52" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="16"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H52" s="12"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="21"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -2295,12 +2320,12 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="21"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H53" s="13"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -2316,7 +2341,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -2332,7 +2357,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -2348,7 +2373,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -2364,7 +2389,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -2380,7 +2405,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -2396,7 +2421,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -2412,7 +2437,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -2428,7 +2453,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -2444,7 +2469,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -2455,28 +2480,28 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="16"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H63" s="12"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
-      <c r="B64" s="12"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="12"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="13"/>
       <c r="G64" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H64" s="12"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="21"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H64" s="13"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="16"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="12"/>
       <c r="C65" s="14"/>
@@ -2492,7 +2517,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="12"/>
       <c r="C66" s="14"/>
@@ -2508,7 +2533,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="B67" s="12"/>
       <c r="C67" s="14"/>
@@ -2524,21 +2549,37 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
-      <c r="B68" s="13"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="14"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="13"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="12"/>
       <c r="G68" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H68" s="13"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="16"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H69" s="13"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2555,10 +2596,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2581,28 +2622,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="40" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="40" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="56" t="s">
         <v>33</v>
       </c>
@@ -2615,7 +2656,7 @@
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -2644,7 +2685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <v>9.25</v>
       </c>
@@ -2668,17 +2709,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="41" t="s">
         <v>28</v>
       </c>
@@ -2699,7 +2740,7 @@
       <c r="K6" s="58"/>
       <c r="L6" s="58"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="40">
         <v>1</v>
       </c>
@@ -2726,7 +2767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="40">
         <v>2</v>
       </c>
@@ -2752,7 +2793,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="40">
         <v>3</v>
       </c>
@@ -2778,7 +2819,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="40">
         <v>4</v>
       </c>
@@ -2804,7 +2845,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="40">
         <v>5</v>
       </c>
@@ -2830,7 +2871,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="40">
         <v>6</v>
       </c>
@@ -2856,7 +2897,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="40">
         <v>7</v>
       </c>
@@ -2882,7 +2923,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="40">
         <v>8</v>
       </c>
@@ -2908,7 +2949,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="40">
         <v>9</v>
       </c>
@@ -2928,7 +2969,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="40">
         <v>10</v>
       </c>
@@ -2948,7 +2989,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="40">
         <v>11</v>
       </c>
@@ -2968,7 +3009,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="40">
         <v>12</v>
       </c>
@@ -2989,7 +3030,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="40">
         <v>13</v>
       </c>
@@ -3010,7 +3051,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="40">
         <v>14</v>
       </c>
@@ -3031,7 +3072,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="40">
         <v>15</v>
       </c>
@@ -3052,7 +3093,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="40">
         <v>16</v>
       </c>
@@ -3073,7 +3114,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="40">
         <v>17</v>
       </c>
@@ -3094,7 +3135,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="40">
         <v>18</v>
       </c>
@@ -3115,7 +3156,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="40">
         <v>19</v>
       </c>
@@ -3136,7 +3177,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="40">
         <v>20</v>
       </c>
@@ -3157,7 +3198,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="40">
         <v>21</v>
       </c>
@@ -3178,7 +3219,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="40">
         <v>22</v>
       </c>
@@ -3199,7 +3240,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="40">
         <v>23</v>
       </c>
@@ -3220,7 +3261,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="40">
         <v>24</v>
       </c>
@@ -3241,7 +3282,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="40">
         <v>25</v>
       </c>
@@ -3262,7 +3303,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="40">
         <v>26</v>
       </c>
@@ -3283,7 +3324,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="40">
         <v>27</v>
       </c>
@@ -3304,7 +3345,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="40">
         <v>28</v>
       </c>
@@ -3325,7 +3366,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="40">
         <v>29</v>
       </c>
@@ -3346,7 +3387,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="40">
         <v>30</v>
       </c>
@@ -3367,7 +3408,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="40">
         <v>31</v>
       </c>
@@ -3388,7 +3429,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="40">
         <v>32</v>
       </c>
@@ -3397,7 +3438,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="40">
         <v>33</v>
       </c>
@@ -3406,7 +3447,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="40">
         <v>34</v>
       </c>
@@ -3415,7 +3456,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="40">
         <v>35</v>
       </c>
@@ -3424,7 +3465,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="40">
         <v>36</v>
       </c>
@@ -3433,7 +3474,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="40">
         <v>37</v>
       </c>
@@ -3442,7 +3483,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="40">
         <v>38</v>
       </c>
@@ -3451,7 +3492,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="40">
         <v>39</v>
       </c>
@@ -3460,7 +3501,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="40">
         <v>40</v>
       </c>
@@ -3469,7 +3510,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="40">
         <v>41</v>
       </c>
@@ -3478,7 +3519,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="40">
         <v>42</v>
       </c>
@@ -3487,7 +3528,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="40">
         <v>43</v>
       </c>
@@ -3496,7 +3537,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="40">
         <v>44</v>
       </c>
@@ -3505,7 +3546,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="40">
         <v>45</v>
       </c>
@@ -3514,7 +3555,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="40">
         <v>46</v>
       </c>
@@ -3523,7 +3564,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="40">
         <v>47</v>
       </c>
@@ -3532,7 +3573,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="40">
         <v>48</v>
       </c>
@@ -3541,7 +3582,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="40">
         <v>49</v>
       </c>
@@ -3550,7 +3591,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="40">
         <v>50</v>
       </c>
@@ -3559,7 +3600,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="40">
         <v>51</v>
       </c>
@@ -3568,7 +3609,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="40">
         <v>52</v>
       </c>
@@ -3577,7 +3618,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="40">
         <v>53</v>
       </c>
@@ -3586,7 +3627,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="40">
         <v>54</v>
       </c>
@@ -3595,7 +3636,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="40">
         <v>55</v>
       </c>
@@ -3604,7 +3645,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="40">
         <v>56</v>
       </c>
@@ -3613,7 +3654,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="40">
         <v>57</v>
       </c>
@@ -3622,7 +3663,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="40">
         <v>58</v>
       </c>
@@ -3631,7 +3672,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="40">
         <v>59</v>
       </c>
@@ -3640,7 +3681,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="40">
         <v>60</v>
       </c>
@@ -3649,7 +3690,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
